--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R050044c3f77e4d49"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Ra9082eac42bf4b36"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Ra9082eac42bf4b36"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rd1291e4a87e042cf"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rd1291e4a87e042cf"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rfddfc7c4e8204bb9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rfddfc7c4e8204bb9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rb711986b34634205"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -27,7 +27,7 @@
     <x:font/>
     <x:font>
       <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rb711986b34634205"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rf0c7b371203f4194"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rf0c7b371203f4194"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rb29a08b154654e9b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rb29a08b154654e9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rc063642a5a3d4a7b"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rc063642a5a3d4a7b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R23ebd2e478874880"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R23ebd2e478874880"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rd0340be86b4c45e8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rd0340be86b4c45e8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R076fc9b150de4739"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R076fc9b150de4739"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Re9601fa2b74e4ae5"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Re9601fa2b74e4ae5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rf697ac58aa084810"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rf697ac58aa084810"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R48bc1db7368c41b1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R48bc1db7368c41b1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R00e3c06a2f2046b6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R00e3c06a2f2046b6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rf31ebdbe90e44dc2"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rf31ebdbe90e44dc2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R4a0f8ec7315c4a94"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R4a0f8ec7315c4a94"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rfab45d9619174999"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rfab45d9619174999"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R01b373e734b848ab"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R01b373e734b848ab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R8cd4bb21fee24356"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R8cd4bb21fee24356"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R8c97016839724030"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R8c97016839724030"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rd12872dfa1744410"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rd12872dfa1744410"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R4b0dd7f001ca4170"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R4b0dd7f001ca4170"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R3a57f3169be04b04"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R3a57f3169be04b04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rac05b4c58c834e6b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rac05b4c58c834e6b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R4be86edb3e18437c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R4be86edb3e18437c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rd805c9d98b014567"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rd805c9d98b014567"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R06999adb2bce491f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R06999adb2bce491f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R50b11fdc9ce84311"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R50b11fdc9ce84311"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R1d80faa3ef2e4801"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R1d80faa3ef2e4801"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R8980ff1fc5244bf3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R8980ff1fc5244bf3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R6770798845fb4171"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R6770798845fb4171"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rf228e94d0596475e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rf228e94d0596475e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rfa786871640a44a1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rfa786871640a44a1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R06e2840af6294c54"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R06e2840af6294c54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R55378659270340de"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R55378659270340de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R360a5781695040fd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R360a5781695040fd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Re924cff324774793"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Re924cff324774793"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R811eb832557849b4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R811eb832557849b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R84a2311d16574104"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R84a2311d16574104"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Ra5ab0627be904235"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Ra5ab0627be904235"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rff4f4dc8eb2945e0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Rff4f4dc8eb2945e0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R598db2855f364c0e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R598db2855f364c0e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R38887c7eedd44eb5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R38887c7eedd44eb5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Ra1d62dbc2bec4229"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/04_CellPositioning.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="Ra1d62dbc2bec4229"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Positioning" sheetId="1" r:id="R3ee91649cc7949ea"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
